--- a/data/iris_prediction.xlsx
+++ b/data/iris_prediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/Documents/Training/Predictive Analtyics with Orange/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E963CFF-3048-4A41-999B-1227320BD7D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAFC533-3A25-594A-A30E-D726DCAA19F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="30620" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="302" zoomScaleNormal="302" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -434,13 +434,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
